--- a/C9500-16X-E.xlsx
+++ b/C9500-16X-E.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF46F55-5AC9-477C-B359-7D62D7B3F69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B6E40-4D02-4970-BADF-CD0B7EA0A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8" windowWidth="14400" windowHeight="8542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C9500-16X-E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>TT</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ASIC</t>
   </si>
   <si>
-    <t>Up to 32,000 (IPv4) Up to 16,000 (IPv6)</t>
-  </si>
-  <si>
     <t>DRAM</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>Rack Units (RU)</t>
   </si>
   <si>
-    <t>23.6 lb (10.7 kg)</t>
-  </si>
-  <si>
-    <t>-4° to 149°F (-20° to 65°C)</t>
-  </si>
-  <si>
     <t>Telemetry and visibility</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Kích thước, khối lượng</t>
   </si>
   <si>
-    <t>Layer 2, Routed Access (RIP, EIGRP Stub, OSPF – Up to 1000 routes),PBR, PIM Stub Multicast (up to 1000 routes)), PVLAN, VRRP, PBR, CDP, QoS, FHS, 802.1x, Macsec-128, CoPP, SXP, IP SLA Responder, SSO</t>
-  </si>
-  <si>
     <t>NETCONF, RESTCONF, gRPC, gNMI/gNOI, YANG, PnP Agent, ZTP/Open PnP, GuestShell (On-Box Python)</t>
   </si>
   <si>
@@ -141,75 +129,24 @@
     <t>Dự phòng</t>
   </si>
   <si>
-    <t>Nguồn đôi có thể tháo rời</t>
-  </si>
-  <si>
     <t>C9500-16X-E</t>
   </si>
   <si>
-    <t>16 cổng 1/10 Gigabit Ethernet SFP/SFP+</t>
-  </si>
-  <si>
-    <t>UADP 3.0</t>
-  </si>
-  <si>
-    <t>Lên tới 480 Gbps</t>
-  </si>
-  <si>
-    <t>Lên tới 360 Mpps</t>
-  </si>
-  <si>
-    <t>Lên tới 84K</t>
-  </si>
-  <si>
-    <t>Lên tới 90000 host/ARP</t>
-  </si>
-  <si>
     <t>Tổng số tuyến IPv4 (Giao thức [ARP] cộng với các tuyến trực tiếp)</t>
   </si>
   <si>
     <t>Tổng số tuyến IPv6Giao thức [NDP] cộng với các tuyến trực tiếp)</t>
   </si>
   <si>
-    <t>Lên tới Up to 90000 host</t>
-  </si>
-  <si>
     <t>Quy mô QoS ACL scale (v4/v6)</t>
   </si>
   <si>
-    <t>Lên tới 16000/8000</t>
-  </si>
-  <si>
     <t>Quy mô Security ACL scale (v4/v6)</t>
   </si>
   <si>
-    <t>Lên tới 27000/13500</t>
-  </si>
-  <si>
-    <t>Lên tới Up to 256000</t>
-  </si>
-  <si>
-    <t>9216 bytes</t>
-  </si>
-  <si>
-    <t>1.73 x 17.5 x 21.52 in</t>
-  </si>
-  <si>
     <t>90 to 264 VAC</t>
   </si>
   <si>
-    <t>32° to 104°F (0° to 40°C) ở độ cao 10,000 feet</t>
-  </si>
-  <si>
-    <t>5% đến 90%</t>
-  </si>
-  <si>
-    <t>5% to 95%</t>
-  </si>
-  <si>
-    <t>Hoạt động lên tới 10.000 feet ở 40°C; lên tới 6.000 feet ở 45°C</t>
-  </si>
-  <si>
     <t>Thời gian trung bình giữa các lần lỗi MTBF (giờ)</t>
   </si>
   <si>
@@ -219,14 +156,132 @@
     <t>12 tháng</t>
   </si>
   <si>
-    <t>1RU</t>
+    <t>16x 1/10G Gigabit Ethernet</t>
+  </si>
+  <si>
+    <t>UADP2.0</t>
+  </si>
+  <si>
+    <t>Up to 480 Gbps</t>
+  </si>
+  <si>
+    <t>Up to 360 Mpps</t>
+  </si>
+  <si>
+    <t>Up to 64,000</t>
+  </si>
+  <si>
+    <r>
+      <t>Up to 64,000 indirect</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF525252"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Up to 40,000 host</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF525252"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Up to 32,000</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF525252"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Up to 18,000/9,000</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF525252"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Up to 512,000</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF525252"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>9,198 bytes</t>
+  </si>
+  <si>
+    <t>4,39 x 44.45 x 54,66 cm</t>
+  </si>
+  <si>
+    <t>1 RU</t>
+  </si>
+  <si>
+    <t>10.7 kg</t>
+  </si>
+  <si>
+    <t>0° to 40°C</t>
+  </si>
+  <si>
+    <t>-20° to 65°C</t>
+  </si>
+  <si>
+    <t>Ambient (noncondensing) operating: 5% to 90%</t>
+  </si>
+  <si>
+    <t>Ambient (noncondensing) nonoperating and storage: 5% to 95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Operation up to 10,000 feet at 40°C; up to 6,000 feet at 45°C</t>
+  </si>
+  <si>
+    <t>Layer 2, Routed Access (RIP, EIGRP Stub, OSPF – Up to 1000 routes),PBR, PIM Stub Multicast (up to 1000 routes)), PVLAN2, VRRP, PBR3, CDP, QoS, FHS, 802.1x2, Macsec-128, CoPP, SXP, IP SLA Responder, SSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +302,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF525252"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF525252"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -296,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +390,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -326,12 +405,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,20 +687,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,319 +708,351 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <v>4094</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="11"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7">
         <v>315790</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
